--- a/Abstand3cm.xlsx
+++ b/Abstand3cm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V701----Reichweite-von-Alphastrahlung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V701----Reichweite-von-Alphastrahlung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B7563-7428-4195-B981-59A2FE95659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C47B7563-7428-4195-B981-59A2FE95659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B4268D-6086-4CEC-8A2E-A0E9DA96A845}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A066464-5A15-439B-9810-D5FC45E2355B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6A066464-5A15-439B-9810-D5FC45E2355B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Zählrate</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Druck in mbar</t>
+  </si>
+  <si>
+    <t>effektive Länge</t>
   </si>
 </sst>
 </file>
@@ -399,18 +402,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF14FA9-5FA8-4877-9314-40F735F143D1}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -423,8 +430,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -437,8 +447,12 @@
       <c r="D2">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>0.03 * A2 *0.001/(1.013)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
@@ -451,8 +465,12 @@
       <c r="D3">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">0.03 * A3 *0.001/(1.013)</f>
+        <v>1.480750246791708E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100</v>
       </c>
@@ -465,8 +483,12 @@
       <c r="D4">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.961500493583416E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>150</v>
       </c>
@@ -479,8 +501,12 @@
       <c r="D5">
         <v>213</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.4422507403751241E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200</v>
       </c>
@@ -493,8 +519,12 @@
       <c r="D6">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.9230009871668321E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>250</v>
       </c>
@@ -507,8 +537,12 @@
       <c r="D7">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.4037512339585393E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>A7+50</f>
         <v>300</v>
@@ -522,10 +556,14 @@
       <c r="D8">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.8845014807502481E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A21" si="0">A8+50</f>
+        <f t="shared" ref="A9:A21" si="1">A8+50</f>
         <v>350</v>
       </c>
       <c r="B9">
@@ -537,10 +575,14 @@
       <c r="D9">
         <v>263</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.0365251727541956E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="B10">
@@ -552,10 +594,14 @@
       <c r="D10">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.1846001974333664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="B11">
@@ -567,10 +613,14 @@
       <c r="D11">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.332675222112537E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="B12">
@@ -582,10 +632,14 @@
       <c r="D12">
         <v>276</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.4807502467917079E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="B13">
@@ -597,10 +651,14 @@
       <c r="D13">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.6288252714708788E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="B14">
@@ -612,10 +670,14 @@
       <c r="D14">
         <v>268</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.7769002961500496E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="B15">
@@ -627,10 +689,14 @@
       <c r="D15">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.9249753208292204E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="B16">
@@ -642,10 +708,14 @@
       <c r="D16">
         <v>283</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.0730503455083912E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="B17">
@@ -657,10 +727,14 @@
       <c r="D17">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.2211253701875617E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="B18">
@@ -672,10 +746,14 @@
       <c r="D18">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.3692003948667328E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>850</v>
       </c>
       <c r="B19">
@@ -687,10 +765,14 @@
       <c r="D19">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.5172754195459036E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="B20">
@@ -702,10 +784,14 @@
       <c r="D20">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.6653504442250741E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
       <c r="B21">
@@ -717,8 +803,12 @@
       <c r="D21">
         <v>274</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.8134254689042452E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>A21+50</f>
         <v>1000</v>
@@ -731,6 +821,10 @@
       </c>
       <c r="D22">
         <v>259</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2.9615004935834157E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Abstand3cm.xlsx
+++ b/Abstand3cm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V701----Reichweite-von-Alphastrahlung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C47B7563-7428-4195-B981-59A2FE95659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B4268D-6086-4CEC-8A2E-A0E9DA96A845}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C47B7563-7428-4195-B981-59A2FE95659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B304FFF2-45A4-4137-94F1-E10FBF51F84E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6A066464-5A15-439B-9810-D5FC45E2355B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Zählrate</t>
   </si>
@@ -52,11 +52,17 @@
   <si>
     <t>effektive Länge</t>
   </si>
+  <si>
+    <t>Energie in MeV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -103,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF14FA9-5FA8-4877-9314-40F735F143D1}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,11 +424,12 @@
     <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -427,14 +439,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -444,15 +459,18 @@
       <c r="C2">
         <v>831</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>190</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <f>0.03 * A2 *0.001/(1.013)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
@@ -462,15 +480,19 @@
       <c r="C3">
         <v>816</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <f>0.0048134774*C3</f>
+        <v>3.9277975584</v>
+      </c>
+      <c r="E3">
         <v>195</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">0.03 * A3 *0.001/(1.013)</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F22" si="0">0.03 * A3 *0.001/(1.013)</f>
         <v>1.480750246791708E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100</v>
       </c>
@@ -480,15 +502,19 @@
       <c r="C4">
         <v>791</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D22" si="1">0.0048134774*C4</f>
+        <v>3.8074606234000004</v>
+      </c>
+      <c r="E4">
         <v>201</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>2.961500493583416E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>150</v>
       </c>
@@ -498,15 +524,19 @@
       <c r="C5">
         <v>775</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7304449850000001</v>
+      </c>
+      <c r="E5">
         <v>213</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>4.4422507403751241E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>200</v>
       </c>
@@ -516,15 +546,19 @@
       <c r="C6">
         <v>715</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4416363410000002</v>
+      </c>
+      <c r="E6">
         <v>234</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>5.9230009871668321E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>250</v>
       </c>
@@ -534,15 +568,19 @@
       <c r="C7">
         <v>663</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1913355162000001</v>
+      </c>
+      <c r="E7">
         <v>234</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>7.4037512339585393E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>A7+50</f>
         <v>300</v>
@@ -553,17 +591,21 @@
       <c r="C8">
         <v>615</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9602886010000002</v>
+      </c>
+      <c r="E8">
         <v>242</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>8.8845014807502481E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A21" si="1">A8+50</f>
+        <f t="shared" ref="A9:A21" si="2">A8+50</f>
         <v>350</v>
       </c>
       <c r="B9">
@@ -572,17 +614,21 @@
       <c r="C9">
         <v>611</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9410346914000001</v>
+      </c>
+      <c r="E9">
         <v>263</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>1.0365251727541956E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="B10">
@@ -591,17 +637,21 @@
       <c r="C10">
         <v>583</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8062573242000002</v>
+      </c>
+      <c r="E10">
         <v>252</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>1.1846001974333664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="B11">
@@ -610,17 +660,21 @@
       <c r="C11">
         <v>547</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6329721377999999</v>
+      </c>
+      <c r="E11">
         <v>256</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>1.332675222112537E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="B12">
@@ -629,17 +683,21 @@
       <c r="C12">
         <v>527</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5367025898</v>
+      </c>
+      <c r="E12">
         <v>276</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>1.4807502467917079E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="B13">
@@ -648,17 +706,21 @@
       <c r="C13">
         <v>492</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3682308808000001</v>
+      </c>
+      <c r="E13">
         <v>261</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>1.6288252714708788E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="B14">
@@ -667,17 +729,21 @@
       <c r="C14">
         <v>431</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0746087594000002</v>
+      </c>
+      <c r="E14">
         <v>268</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>1.7769002961500496E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="B15">
@@ -686,17 +752,21 @@
       <c r="C15">
         <v>371</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7858001154000001</v>
+      </c>
+      <c r="E15">
         <v>278</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>1.9249753208292204E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="B16">
@@ -705,17 +775,21 @@
       <c r="C16">
         <v>348</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6750901352000001</v>
+      </c>
+      <c r="E16">
         <v>283</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>2.0730503455083912E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="B17">
@@ -724,17 +798,21 @@
       <c r="C17">
         <v>271</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3044523754000001</v>
+      </c>
+      <c r="E17">
         <v>288</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>2.2211253701875617E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="B18">
@@ -743,17 +821,21 @@
       <c r="C18">
         <v>262</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2611310788000001</v>
+      </c>
+      <c r="E18">
         <v>256</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>2.3692003948667328E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="B19">
@@ -762,17 +844,21 @@
       <c r="C19">
         <v>97</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4669073078</v>
+      </c>
+      <c r="E19">
         <v>262</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>2.5172754195459036E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="B20">
@@ -781,17 +867,21 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8880864400000001E-2</v>
+      </c>
+      <c r="E20">
         <v>262</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>2.6653504442250741E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
       <c r="B21">
@@ -800,15 +890,19 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8134774000000002E-3</v>
+      </c>
+      <c r="E21">
         <v>274</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>2.8134254689042452E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>A21+50</f>
         <v>1000</v>
@@ -819,15 +913,20 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8134774000000002E-3</v>
+      </c>
+      <c r="E22">
         <v>259</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>2.9615004935834157E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Abstand3cm.xlsx
+++ b/Abstand3cm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/Anfängerpraktikum/V701----Reichweite-von-Alphastrahlung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V701----Reichweite-von-Alphastrahlung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C47B7563-7428-4195-B981-59A2FE95659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B304FFF2-45A4-4137-94F1-E10FBF51F84E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52348B-315D-4B29-813E-088EB9FFCF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6A066464-5A15-439B-9810-D5FC45E2355B}"/>
+    <workbookView xWindow="1575" yWindow="4725" windowWidth="21600" windowHeight="11295" xr2:uid="{6A066464-5A15-439B-9810-D5FC45E2355B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,20 +412,20 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -449,28 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>55341</v>
-      </c>
-      <c r="C2">
-        <v>831</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>190</v>
-      </c>
-      <c r="F2" s="1">
-        <f>0.03 * A2 *0.001/(1.013)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -487,12 +462,8 @@
       <c r="E3">
         <v>195</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F22" si="0">0.03 * A3 *0.001/(1.013)</f>
-        <v>1.480750246791708E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -503,18 +474,14 @@
         <v>791</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D22" si="1">0.0048134774*C4</f>
+        <f t="shared" ref="D4:D22" si="0">0.0048134774*C4</f>
         <v>3.8074606234000004</v>
       </c>
       <c r="E4">
         <v>201</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.961500493583416E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150</v>
       </c>
@@ -525,18 +492,14 @@
         <v>775</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7304449850000001</v>
       </c>
       <c r="E5">
         <v>213</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4422507403751241E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
@@ -547,18 +510,14 @@
         <v>715</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4416363410000002</v>
       </c>
       <c r="E6">
         <v>234</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9230009871668321E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>250</v>
       </c>
@@ -569,18 +528,14 @@
         <v>663</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1913355162000001</v>
       </c>
       <c r="E7">
         <v>234</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4037512339585393E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7+50</f>
         <v>300</v>
@@ -592,20 +547,16 @@
         <v>615</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9602886010000002</v>
       </c>
       <c r="E8">
         <v>242</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8845014807502481E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A21" si="2">A8+50</f>
+        <f t="shared" ref="A9:A21" si="1">A8+50</f>
         <v>350</v>
       </c>
       <c r="B9">
@@ -615,20 +566,16 @@
         <v>611</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9410346914000001</v>
       </c>
       <c r="E9">
         <v>263</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0365251727541956E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="B10">
@@ -638,20 +585,16 @@
         <v>583</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8062573242000002</v>
       </c>
       <c r="E10">
         <v>252</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1846001974333664E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="B11">
@@ -661,20 +604,16 @@
         <v>547</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6329721377999999</v>
       </c>
       <c r="E11">
         <v>256</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.332675222112537E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="B12">
@@ -684,20 +623,16 @@
         <v>527</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5367025898</v>
       </c>
       <c r="E12">
         <v>276</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4807502467917079E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="B13">
@@ -707,20 +642,16 @@
         <v>492</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3682308808000001</v>
       </c>
       <c r="E13">
         <v>261</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6288252714708788E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="B14">
@@ -730,20 +661,15 @@
         <v>431</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0746087594000002</v>
       </c>
       <c r="E14">
         <v>268</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7769002961500496E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="B15">
@@ -753,20 +679,20 @@
         <v>371</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7858001154000001</v>
       </c>
       <c r="E15">
         <v>278</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F22" si="2">0.03 * A15 *0.001/(1.013)</f>
         <v>1.9249753208292204E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="B16">
@@ -776,20 +702,20 @@
         <v>348</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6750901352000001</v>
       </c>
       <c r="E16">
         <v>283</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0730503455083912E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="B17">
@@ -799,20 +725,20 @@
         <v>271</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3044523754000001</v>
       </c>
       <c r="E17">
         <v>288</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2211253701875617E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="B18">
@@ -822,20 +748,20 @@
         <v>262</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2611310788000001</v>
       </c>
       <c r="E18">
         <v>256</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3692003948667328E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>850</v>
       </c>
       <c r="B19">
@@ -845,20 +771,20 @@
         <v>97</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4669073078</v>
       </c>
       <c r="E19">
         <v>262</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5172754195459036E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="B20">
@@ -868,20 +794,20 @@
         <v>6</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8880864400000001E-2</v>
       </c>
       <c r="E20">
         <v>262</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6653504442250741E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
       <c r="B21">
@@ -891,18 +817,18 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8134774000000002E-3</v>
       </c>
       <c r="E21">
         <v>274</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8134254689042452E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>A21+50</f>
         <v>1000</v>
@@ -914,14 +840,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.8134774000000002E-3</v>
       </c>
       <c r="E22">
         <v>259</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9615004935834157E-2</v>
       </c>
     </row>
